--- a/graph1.xlsx
+++ b/graph1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C943B1-71A8-40BE-B66C-8A4EB9D86D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB9CAD-DE39-4A71-A1EE-C135FF43A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Domestic manufacturing in 2025" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,23 @@
     <t>ESG Certification USD/Wp</t>
   </si>
   <si>
-    <t xml:space="preserve">**3. 2025 PV Production Costs by Country with Imported Polysilicon**
+    <t>**2030 Comparison of Domestic PV Production Costs by Country**
+This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. The following assumptions are applied:
+- **Technology** TopCon
+- **Production capacity:** 50 tons for polysilicon and 6 GW for wafers, solar cells, and panel assembly
+Costs have slightly decreased over the years due to economies of scale and technological improvements, primarily driven by reduced material consumption and increased process efficiency.
+Asian markets continue to demonstrate the most competitive cost structures due to low electricity and labor costs. Conversely, Germany’s higher costs is still largely driven by elevated electricity prices, which have a strong impact on energy-intensive upstream stages such as polysilicon manufacturing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**2025 Comparison of Domestic PV Production Costs by Country**
+This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. Taking into consideration following assumptions:  
+- **Technology**: Topcon 
+- **Production capacity**: 50 tons for Polysilicon and 4 GW production capacity for wafers, solar cells, and panel assembly 
+The model confirms that regional factor costs—primarily industrial electricity tariffs and labor rates—are the main drivers of baseline production cost differences. 
+Asian markets shows the most competitive cost structures due to lower electricity and labor costs. In contrast, Germany’s higher costs is driven primarily by high electricity prices, which significantly affect the cost structure of energy-intensive upstream segments such as polysilicon production. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Polysilicon**
 This scenario illustrates the cost of final PV modules when polysilicon is imported from China, while all other parts of the PV value chain—wafers, solar cells, and panel assembly—are manufactured domestically. The following assumptions are applied: 
 - **Technology:** TopCon 
 - **Production capacity:** 4 GW for wafers, solar cells, and panel assembly
@@ -116,7 +132,7 @@
 The overall cost differences between countries still reflect regional factor costs—primarily labor rates and electricity tariffs—for downstream manufacturing steps. While Asian markets remain the most cost-competitive, importing polysilicon helps narrow the cost gap for countries like Germany by avoiding high domestic electricity costs associated with local polysilicon production. </t>
   </si>
   <si>
-    <t xml:space="preserve">**4. 2025 PV Production Costs by Country with Imported Wafers**
+    <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Wafers**
 This scenario illustrates the cost of final PV modules when wafers are imported from China, while solar cells and panel assembly are manufactured domestically. The following assumptions apply: 
 - **Technology:** TopCon 
 - **Production capacity:** 4 GW for solar cells and panel assembly
@@ -125,7 +141,7 @@
 Despite importing wafers, regional factor costs such as labor rates and industrial electricity tariffs for solar cell production and panel assembly continue to influence final costs. Asian markets remain highly competitive, while countries with higher energy costs, like Germany, see reduced but still relatively higher costs compared to Asian producers. </t>
   </si>
   <si>
-    <t xml:space="preserve">**5. 2025 PV Production Costs by Country with Imported Cells**
+    <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Cells**
 This scenario illustrates the cost of final PV modules when solar cells are imported from China and panel assembly are manufactured domestically. The following assumptions apply:
 - **Technology:** TopCon 
 - **Production capacity:** 4 GW for panel assembly
@@ -133,7 +149,7 @@
 Importing cells from China results in the lowest overall module cost compared to other scenarios. This approach eliminates the need for domestic cell production, which is typically capital- and cost-intensive, while still enabling final module assembly to take place locally. Key material, such solar cells, along with other materials — as aluminium frames, glass, junction boxes — represent the largest cost items in module assembly.  Labor, electricity, and facility expenses vary by country and further impact total module costs. </t>
   </si>
   <si>
-    <t xml:space="preserve">**6. 2025 PV Production Costs by Country with Imported Wafer**
+    <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Wafer**
 This scenario illustrates the cost of final PV modules when wafers are imported from Vietnam, while solar cells and panel assembly are manufactured domestically. The following assumptions apply: 
 - **Technology:** TopCon 
 - **Production capacity:** 4 GW for solar cells and panel assembly 
@@ -142,28 +158,12 @@
 Despite importing wafers, regional factor costs such as labor rates and industrial electricity tariffs for solar cell production and panel assembly continue to influence final costs. Asian markets remain highly competitive, while countries with higher energy costs, like Germany, see reduced but still relatively higher costs compared to Asian producers. </t>
   </si>
   <si>
-    <t xml:space="preserve">**7. 2025 PV Production Costs by Country with Imported Cells**
+    <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Cells**
 This scenario illustrates the cost of final PV modules when solar cells are imported from Vietnam and panel assembly are manufactured domestically. The following assumptions apply: 
 - **Technology:** TopCon 
 - **Production capacity:** 4 GW for panel assembly
 - **Wafers:**: Imported from Vietnam 
 Importing cells from Vietnam results in lower overall module costs compared to most other scenarios—except for imports from China, where current market prices remain the lowest. This strategy eliminates the need for domestic cell production, which is typically capital- and cost-intensive, while still allowing for local module assembly. Key material, such solar cells, along with other materials — as aluminium frames, glass, junction boxes — represent the largest cost items in module assembly .  Labor, electricity, and facility expenses vary by country and further impact total module costs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**1. 2025 Comparison of Domestic PV Production Costs by Country**
-This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. Taking into consideration following assumptions:  
-- **Technology**: Topcon 
-- **Production capacity**: 50 tons for Polysilicon and 4 GW production capacity for wafers, solar cells, and panel assembly 
-The model confirms that regional factor costs—primarily industrial electricity tariffs and labor rates—are the main drivers of baseline production cost differences. 
-Asian markets shows the most competitive cost structures due to lower electricity and labor costs. In contrast, Germany’s higher costs is driven primarily by high electricity prices, which significantly affect the cost structure of energy-intensive upstream segments such as polysilicon production. </t>
-  </si>
-  <si>
-    <t>**2. 2030 Comparison of Domestic PV Production Costs by Country**
-This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. The following assumptions are applied:
-- **Technology** TopCon
-- **Production capacity:** 50 tons for polysilicon and 6 GW for wafers, solar cells, and panel assembly
-Costs have slightly decreased over the years due to economies of scale and technological improvements, primarily driven by reduced material consumption and increased process efficiency.
-Asian markets continue to demonstrate the most competitive cost structures due to low electricity and labor costs. Conversely, Germany’s higher costs is still largely driven by elevated electricity prices, which have a strong impact on energy-intensive upstream stages such as polysilicon manufacturing.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="237" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0400BF-0193-4FE4-A416-543F0CF83CB2}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -959,7 +959,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="287.64999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19535FBD-F5C8-425C-9DBE-0766F7008F95}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2395,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="183.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,6 +2609,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -2843,27 +2863,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200806E0-22AD-4C17-808B-0A7BBD1941FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2880,29 +2905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/graph1.xlsx
+++ b/graph1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB9CAD-DE39-4A71-A1EE-C135FF43A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{55BB9CAD-DE39-4A71-A1EE-C135FF43A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A643771E-1611-4F67-ADED-B0DCBBD907B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Domestic manufacturing in 2025" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">**2025 Comparison of Domestic PV Production Costs by Country**
+This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. 
+The model confirms that regional factor costs—primarily industrial electricity tariffs and labor rates—are the main drivers of baseline production cost differences. 
+Asian markets shows the most competitive cost structures due to lower electricity and labor costs. In contrast, Germany’s higher costs is driven primarily by high electricity prices, which significantly affect the cost structure of energy-intensive upstream segments such as polysilicon production. </t>
+  </si>
   <si>
     <t>Vietnam</t>
   </si>
@@ -101,69 +107,44 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ESG Certification USD/Wp</t>
-  </si>
-  <si>
     <t>**2030 Comparison of Domestic PV Production Costs by Country**
-This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. The following assumptions are applied:
-- **Technology** TopCon
-- **Production capacity:** 50 tons for polysilicon and 6 GW for wafers, solar cells, and panel assembly
+This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. 
 Costs have slightly decreased over the years due to economies of scale and technological improvements, primarily driven by reduced material consumption and increased process efficiency.
 Asian markets continue to demonstrate the most competitive cost structures due to low electricity and labor costs. Conversely, Germany’s higher costs is still largely driven by elevated electricity prices, which have a strong impact on energy-intensive upstream stages such as polysilicon manufacturing.</t>
   </si>
   <si>
-    <t xml:space="preserve">**2025 Comparison of Domestic PV Production Costs by Country**
-This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. Taking into consideration following assumptions:  
-- **Technology**: Topcon 
-- **Production capacity**: 50 tons for Polysilicon and 4 GW production capacity for wafers, solar cells, and panel assembly 
-The model confirms that regional factor costs—primarily industrial electricity tariffs and labor rates—are the main drivers of baseline production cost differences. 
-Asian markets shows the most competitive cost structures due to lower electricity and labor costs. In contrast, Germany’s higher costs is driven primarily by high electricity prices, which significantly affect the cost structure of energy-intensive upstream segments such as polysilicon production. </t>
-  </si>
-  <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Polysilicon**
-This scenario illustrates the cost of final PV modules when polysilicon is imported from China, while all other parts of the PV value chain—wafers, solar cells, and panel assembly—are manufactured domestically. The following assumptions are applied: 
-- **Technology:** TopCon 
-- **Production capacity:** 4 GW for wafers, solar cells, and panel assembly
-- **Polysilicon:** Imported from China 
+This scenario illustrates the cost of final PV modules when polysilicon is imported from China, while all other parts of the PV value chain—wafers, solar cells, and panel assembly—are manufactured domestically. The production capacity considered was 4 GW for wafers, solar cells, and panel assembly.
 The model shows that importing polysilicon from China lowers the final PV module cost compared to full domestic production in regions with higher electricity prices. 
 The overall cost differences between countries still reflect regional factor costs—primarily labor rates and electricity tariffs—for downstream manufacturing steps. While Asian markets remain the most cost-competitive, importing polysilicon helps narrow the cost gap for countries like Germany by avoiding high domestic electricity costs associated with local polysilicon production. </t>
   </si>
   <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Wafers**
-This scenario illustrates the cost of final PV modules when wafers are imported from China, while solar cells and panel assembly are manufactured domestically. The following assumptions apply: 
-- **Technology:** TopCon 
-- **Production capacity:** 4 GW for solar cells and panel assembly
-- **Wafers:**: Imported from China 
+This scenario illustrates the cost of final PV modules when wafers are imported from China, while solar cells and panel assembly are manufactured domestically. The production capacity considered was 4 GW for solar cells and panel assembly.
 Importing wafers allows countries to bypass the energy-intensive wafer manufacturing stage, benefiting from China’s cost advantages and scale in this segment.  
 Despite importing wafers, regional factor costs such as labor rates and industrial electricity tariffs for solar cell production and panel assembly continue to influence final costs. Asian markets remain highly competitive, while countries with higher energy costs, like Germany, see reduced but still relatively higher costs compared to Asian producers. </t>
   </si>
   <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Cells**
-This scenario illustrates the cost of final PV modules when solar cells are imported from China and panel assembly are manufactured domestically. The following assumptions apply:
-- **Technology:** TopCon 
-- **Production capacity:** 4 GW for panel assembly
-- **Cell:** Imported from China 
+This scenario illustrates the cost of final PV modules when solar cells are imported from China and panel assembly are manufactured domestically. The production capacity considered was 4 GW for panel assembly.
 Importing cells from China results in the lowest overall module cost compared to other scenarios. This approach eliminates the need for domestic cell production, which is typically capital- and cost-intensive, while still enabling final module assembly to take place locally. Key material, such solar cells, along with other materials — as aluminium frames, glass, junction boxes — represent the largest cost items in module assembly.  Labor, electricity, and facility expenses vary by country and further impact total module costs. </t>
   </si>
   <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Wafer**
-This scenario illustrates the cost of final PV modules when wafers are imported from Vietnam, while solar cells and panel assembly are manufactured domestically. The following assumptions apply: 
-- **Technology:** TopCon 
-- **Production capacity:** 4 GW for solar cells and panel assembly 
-- **Wafers:**: Imported from Vietnam 
+This scenario illustrates the cost of final PV modules when wafers are imported from Vietnam, while solar cells and panel assembly are manufactured domestically. The production capacity considered was 4 GW for solar cells and panel assembly.
 Importing wafers allows countries to bypass the energy-intensive wafer manufacturing stage, benefiting from Vietnam’s cost advantages and scale in this segment.  
 Despite importing wafers, regional factor costs such as labor rates and industrial electricity tariffs for solar cell production and panel assembly continue to influence final costs. Asian markets remain highly competitive, while countries with higher energy costs, like Germany, see reduced but still relatively higher costs compared to Asian producers. </t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Cells**
-This scenario illustrates the cost of final PV modules when solar cells are imported from Vietnam and panel assembly are manufactured domestically. The following assumptions apply: 
-- **Technology:** TopCon 
-- **Production capacity:** 4 GW for panel assembly
-- **Wafers:**: Imported from Vietnam 
+This scenario illustrates the cost of final PV modules when solar cells are imported from Vietnam and panel assembly are manufactured domestically. The production capacity considered was 4 GW for panel assembly.
 Importing cells from Vietnam results in lower overall module costs compared to most other scenarios—except for imports from China, where current market prices remain the lowest. This strategy eliminates the need for domestic cell production, which is typically capital- and cost-intensive, while still allowing for local module assembly. Key material, such solar cells, along with other materials — as aluminium frames, glass, junction boxes — represent the largest cost items in module assembly .  Labor, electricity, and facility expenses vary by country and further impact total module costs. </t>
+  </si>
+  <si>
+    <t>ESG Certification USD/Wp</t>
   </si>
 </sst>
 </file>
@@ -176,7 +157,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +178,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -243,9 +217,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,47 +558,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3867D002-ADC4-4A8C-80BF-3C80267D81F2}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="237" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="237" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>2.3377900350000001E-2</v>
@@ -648,9 +621,9 @@
         <v>4.0372351949999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>3.3126947791375289E-2</v>
@@ -671,9 +644,9 @@
         <v>6.5019114910684558E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>4.0165144733480804E-2</v>
@@ -694,9 +667,9 @@
         <v>6.9747744733480804E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>6.8771609999999997E-3</v>
@@ -717,9 +690,9 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>1.7500000000000003E-3</v>
@@ -740,9 +713,9 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1E-3</v>
@@ -764,9 +737,9 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2.5999999999999999E-3</v>
@@ -787,9 +760,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1.32E-3</v>
@@ -810,9 +783,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.3759999999999996E-3</v>
@@ -833,9 +806,9 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>5.5E-2</v>
@@ -856,9 +829,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2.3999999999999998E-3</v>
@@ -879,9 +852,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>9.9669000000000008E-3</v>
@@ -902,9 +875,9 @@
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" ref="B19:G19" si="0">SUM(B7:B18)</f>
@@ -931,7 +904,7 @@
         <v>0.28364217159416538</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -950,49 +923,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0400BF-0193-4FE4-A416-543F0CF83CB2}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="233.25" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>2.0353066965E-2</v>
@@ -1019,9 +994,9 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>3.2196836236263737E-2</v>
@@ -1048,9 +1023,9 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>3.4316570683391695E-2</v>
@@ -1077,9 +1052,9 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>6.9651360000000011E-3</v>
@@ -1101,9 +1076,9 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1.4000000000000002E-3</v>
@@ -1130,9 +1105,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1E-3</v>
@@ -1161,9 +1136,9 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2.5999999999999999E-3</v>
@@ -1190,9 +1165,9 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1.32E-3</v>
@@ -1219,9 +1194,9 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.3759999999999996E-3</v>
@@ -1248,9 +1223,9 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>5.5E-2</v>
@@ -1277,9 +1252,9 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.5999999999999995E-3</v>
@@ -1306,9 +1281,9 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1.0094400000000002E-2</v>
@@ -1334,9 +1309,9 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" ref="B19:G19" si="0">SUM(B7:B18)</f>
@@ -1369,7 +1344,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1388,35 +1363,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E072E-C271-4932-9F5C-B25CC673A8A1}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="287.64999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="287.64999999999998" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>1.0844319230769232E-2</v>
@@ -1432,9 +1409,9 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>3.3126947791375289E-2</v>
@@ -1450,9 +1427,9 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>4.0165144733480804E-2</v>
@@ -1468,9 +1445,9 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>6.8771609999999997E-3</v>
@@ -1487,9 +1464,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>1.7500000000000003E-3</v>
@@ -1506,9 +1483,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>1E-3</v>
@@ -1525,9 +1502,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>2.5999999999999999E-3</v>
@@ -1544,9 +1521,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>1.32E-3</v>
@@ -1563,9 +1540,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>2.3759999999999996E-3</v>
@@ -1582,9 +1559,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>5.5E-2</v>
@@ -1601,9 +1578,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1620,9 +1597,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>9.9669000000000008E-3</v>
@@ -1639,9 +1616,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <f>SUM(B7:B18)</f>
@@ -1670,35 +1647,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56143F65-3444-417C-BDD4-656B420EBFCE}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="250.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>2.2649465485420638E-2</v>
@@ -1713,9 +1692,9 @@
         <v>2.2945161415307745E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>4.0165144733480804E-2</v>
@@ -1730,9 +1709,9 @@
         <v>6.9747744733480804E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>6.8771609999999997E-3</v>
@@ -1747,9 +1726,9 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>1.7500000000000003E-3</v>
@@ -1764,9 +1743,9 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>1E-3</v>
@@ -1781,9 +1760,9 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>2.5999999999999999E-3</v>
@@ -1798,9 +1777,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>1.32E-3</v>
@@ -1815,9 +1794,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>2.3759999999999996E-3</v>
@@ -1832,9 +1811,9 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>5.5E-2</v>
@@ -1849,9 +1828,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1866,9 +1845,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>9.9669000000000008E-3</v>
@@ -1883,9 +1862,9 @@
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <f>SUM(B7:B17)</f>
@@ -1915,33 +1894,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="181.9" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>4.1161767142965842E-2</v>
@@ -1956,9 +1935,9 @@
         <v>4.1457463072852953E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>6.8771609999999997E-3</v>
@@ -1973,9 +1952,9 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1.7500000000000003E-3</v>
@@ -1990,9 +1969,9 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1E-3</v>
@@ -2007,9 +1986,9 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2.5999999999999999E-3</v>
@@ -2024,9 +2003,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1.32E-3</v>
@@ -2041,9 +2020,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2.3759999999999996E-3</v>
@@ -2058,9 +2037,9 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>5.5E-2</v>
@@ -2075,9 +2054,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2.3999999999999998E-3</v>
@@ -2092,9 +2071,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>9.9669000000000008E-3</v>
@@ -2109,9 +2088,9 @@
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B7:B16)</f>
@@ -2141,33 +2120,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="274.5">
       <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>5.2026654783125369E-2</v>
@@ -2182,9 +2161,9 @@
         <v>0.10406733983214497</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>4.2913443483480793E-2</v>
@@ -2199,9 +2178,9 @@
         <v>6.5972202733480811E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>6.996496500000002E-3</v>
@@ -2216,9 +2195,9 @@
         <v>8.9492310000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>2.3750000000000004E-3</v>
@@ -2233,9 +2212,9 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>1.1000000000000001E-3</v>
@@ -2250,12 +2229,12 @@
         <v>1.75E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>3.0000000000000001E-3</v>
@@ -2270,9 +2249,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>1.48E-3</v>
@@ -2287,9 +2266,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>2.2439999999999999E-3</v>
@@ -2304,9 +2283,9 @@
         <v>1.8216E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>5.5E-2</v>
@@ -2321,9 +2300,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>2.3999999999999998E-3</v>
@@ -2338,9 +2317,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>1.0139850000000001E-2</v>
@@ -2355,9 +2334,9 @@
         <v>1.2969899999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <f>SUM(B7:B17)</f>
@@ -2385,36 +2364,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19535FBD-F5C8-425C-9DBE-0766F7008F95}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="183.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="183.4" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>9.086812194858139E-2</v>
@@ -2429,9 +2408,9 @@
         <v>0.18177777416305702</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>6.996496500000002E-3</v>
@@ -2446,9 +2425,9 @@
         <v>8.9492310000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>2.3750000000000004E-3</v>
@@ -2463,9 +2442,9 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>1.1000000000000001E-3</v>
@@ -2480,9 +2459,9 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>3.0000000000000001E-3</v>
@@ -2497,9 +2476,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>1.48E-3</v>
@@ -2514,9 +2493,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2.2439999999999999E-3</v>
@@ -2531,9 +2510,9 @@
         <v>1.8216E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>5.5E-2</v>
@@ -2548,9 +2527,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>2.3999999999999998E-3</v>
@@ -2565,9 +2544,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>1.0139850000000001E-2</v>
@@ -2582,9 +2561,9 @@
         <v>1.2969899999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B7:B16)</f>
@@ -2864,45 +2843,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200806E0-22AD-4C17-808B-0A7BBD1941FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200806E0-22AD-4C17-808B-0A7BBD1941FB}"/>
 </file>
--- a/graph1.xlsx
+++ b/graph1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{55BB9CAD-DE39-4A71-A1EE-C135FF43A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A643771E-1611-4F67-ADED-B0DCBBD907B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA25980A-D46C-4C48-88BE-883052A6157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Domestic manufacturing in 2025" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t xml:space="preserve">**2025 Comparison of Domestic PV Production Costs by Country**
 This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. 
@@ -104,9 +104,6 @@
     <t>Operating profits</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>**2030 Comparison of Domestic PV Production Costs by Country**
 This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. 
 Costs have slightly decreased over the years due to economies of scale and technological improvements, primarily driven by reduced material consumption and increased process efficiency.
@@ -157,16 +154,8 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -206,19 +195,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,29 +543,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3867D002-ADC4-4A8C-80BF-3C80267D81F2}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="237" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="237" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -598,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -621,7 +608,7 @@
         <v>4.0372351949999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -644,7 +631,7 @@
         <v>6.5019114910684558E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -667,7 +654,7 @@
         <v>6.9747744733480804E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -690,8 +677,8 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -713,31 +700,31 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>1E-3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1.75E-3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -760,7 +747,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -783,7 +770,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -806,7 +793,7 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,7 +816,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -852,7 +839,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -875,44 +862,15 @@
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5">
-        <f t="shared" ref="B19:G19" si="0">SUM(B7:B18)</f>
-        <v>0.17996005387485611</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1802483721094037</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19127391383086795</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25637789922252274</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26159763571294664</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28364217159416538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,31 +879,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0400BF-0193-4FE4-A416-543F0CF83CB2}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="233.25" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:19">
+    <row r="1" spans="1:19" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -965,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -981,7 +939,7 @@
       <c r="E7" s="1">
         <v>2.7114521175E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2.7541909520999996E-2</v>
       </c>
       <c r="G7" s="1">
@@ -994,7 +952,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +968,7 @@
       <c r="E8" s="1">
         <v>5.3938830317493858E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>5.4975165970997858E-2</v>
       </c>
       <c r="G8" s="1">
@@ -1023,7 +981,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +997,7 @@
       <c r="E9" s="1">
         <v>5.7769555683391698E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>6.01587266833917E-2</v>
       </c>
       <c r="G9" s="1">
@@ -1052,7 +1010,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,8 +1034,8 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -1098,45 +1056,45 @@
       <c r="G11" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="3"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>1E-3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1.5E-3</v>
       </c>
       <c r="F12" s="1">
         <v>1.75E-3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1165,7 +1123,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1152,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1168,7 @@
       <c r="E15" s="1">
         <v>1.7687999999999999E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1.8216E-2</v>
       </c>
       <c r="G15" s="1">
@@ -1223,7 +1181,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1210,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1239,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1309,50 +1267,15 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5">
-        <f t="shared" ref="B19:G19" si="0">SUM(B7:B18)</f>
-        <v>0.17122200988465544</v>
-      </c>
-      <c r="C19" s="5">
-        <f>SUM(C7:C18)</f>
-        <v>0.17134707285848477</v>
-      </c>
-      <c r="D19" s="5">
-        <f>SUM(D7:D18)</f>
-        <v>0.18125293597512165</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24610746517588555</v>
-      </c>
-      <c r="F19" s="5">
-        <f>SUM(F7:F18)</f>
-        <v>0.2521389431753896</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26897223979856399</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1361,23 +1284,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E072E-C271-4932-9F5C-B25CC673A8A1}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="287.64999999999998" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    <row r="1" spans="1:8" ht="287.64999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1332,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1350,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1368,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1464,8 +1387,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -1483,7 +1406,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1425,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1444,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1463,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1482,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1501,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1520,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1615,28 +1538,6 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <f>SUM(B7:B18)</f>
-        <v>0.16742647275562536</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(C7:C18)</f>
-        <v>0.1756065088097141</v>
-      </c>
-      <c r="D19" s="2">
-        <f>SUM(D7:D18)</f>
-        <v>0.23637690241867659</v>
-      </c>
-      <c r="E19" s="2">
-        <f>SUM(E7:E18)</f>
-        <v>0.25462863887493464</v>
-      </c>
-      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,23 +1546,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56143F65-3444-417C-BDD4-656B420EBFCE}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="250.5" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="1" spans="1:5" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1675,7 +1576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1593,7 @@
         <v>2.2945161415307745E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1709,7 +1610,7 @@
         <v>6.9747744733480804E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1627,7 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1743,7 +1644,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1661,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1678,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +1695,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1811,7 +1712,7 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1729,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1746,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1860,27 +1761,6 @@
       </c>
       <c r="E17" s="1">
         <v>1.2983999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <f>SUM(B7:B17)</f>
-        <v>0.14610467121890147</v>
-      </c>
-      <c r="C18" s="2">
-        <f>SUM(C7:C17)</f>
-        <v>0.15034212244751108</v>
-      </c>
-      <c r="D18" s="2">
-        <f>SUM(D7:D17)</f>
-        <v>0.19305561628485512</v>
-      </c>
-      <c r="E18" s="2">
-        <f>SUM(E7:E17)</f>
-        <v>0.20119586614878857</v>
       </c>
     </row>
   </sheetData>
@@ -1890,21 +1770,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84CE525-A0E8-49E7-BFCB-CED0D462C0E6}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="181.9" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="1" spans="1:5" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1817,7 @@
         <v>4.1457463072852953E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1952,7 +1834,7 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1969,7 +1851,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +1868,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2003,7 +1885,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +1902,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2037,7 +1919,7 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +1936,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +1953,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2086,27 +1968,6 @@
       </c>
       <c r="E16" s="1">
         <v>1.2983999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <f>SUM(B7:B16)</f>
-        <v>0.12445182814296583</v>
-      </c>
-      <c r="C17" s="2">
-        <f>SUM(C7:C16)</f>
-        <v>0.12594098062157547</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(D7:D16)</f>
-        <v>0.14759880820891952</v>
-      </c>
-      <c r="E17" s="2">
-        <f>SUM(E7:E16)</f>
-        <v>0.14996042307285296</v>
       </c>
     </row>
   </sheetData>
@@ -2116,21 +1977,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DF5D6-98CE-494A-A655-C0A0DF91D328}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="274.5">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    <row r="1" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2144,24 +2007,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>5.2026654783125369E-2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>5.2072146464646467E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5.2245989676173499E-2</v>
       </c>
       <c r="E7" s="1">
         <v>0.10406733983214497</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2041,7 @@
         <v>6.5972202733480811E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2058,7 @@
         <v>8.9492310000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2075,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2229,10 +2092,10 @@
         <v>1.75E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2112,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2129,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2283,7 +2146,7 @@
         <v>1.8216E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2300,7 +2163,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2317,7 +2180,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2332,27 +2195,6 @@
       </c>
       <c r="E17" s="1">
         <v>1.2969899999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <f>SUM(B7:B17)</f>
-        <v>0.17967544476660618</v>
-      </c>
-      <c r="C18" s="2">
-        <f>SUM(C7:C17)</f>
-        <v>0.22238568919812729</v>
-      </c>
-      <c r="D18" s="2">
-        <f>SUM(D7:D17)</f>
-        <v>0.23049669440965431</v>
-      </c>
-      <c r="E18" s="2">
-        <f>SUM(E7:E17)</f>
-        <v>0.27842467356562584</v>
       </c>
     </row>
   </sheetData>
@@ -2362,22 +2204,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19535FBD-F5C8-425C-9DBE-0766F7008F95}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="183.4" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="1" spans="1:5" ht="183.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2391,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2408,9 +2252,9 @@
         <v>0.18177777416305702</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>6.996496500000002E-3</v>
@@ -2425,7 +2269,7 @@
         <v>8.9492310000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2286,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2459,7 +2303,7 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2320,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2493,7 +2337,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2354,7 @@
         <v>1.8216E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2371,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2388,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2559,27 +2403,6 @@
       </c>
       <c r="E16" s="1">
         <v>1.2969899999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <f>SUM(B7:B16)</f>
-        <v>0.17560346844858141</v>
-      </c>
-      <c r="C17" s="2">
-        <f>SUM(C7:C16)</f>
-        <v>0.19725804663010252</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(D7:D16)</f>
-        <v>0.19959041684162954</v>
-      </c>
-      <c r="E17" s="2">
-        <f>SUM(E7:E16)</f>
-        <v>0.29016290516305704</v>
       </c>
     </row>
   </sheetData>
@@ -2588,26 +2411,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -2842,14 +2645,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200806E0-22AD-4C17-808B-0A7BBD1941FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200806E0-22AD-4C17-808B-0A7BBD1941FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/graph1.xlsx
+++ b/graph1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA25980A-D46C-4C48-88BE-883052A6157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F94E6-D081-4766-A87D-F677BE0F0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{A588899F-9506-44E7-8A3A-AF832955CA3E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t xml:space="preserve">**2025 Comparison of Domestic PV Production Costs by Country**
 This scenario illustrates the cost of final PV modules if all parts of the PV value chain **— polysilicon, wafers, solar cells, and panel assembly —** are manufactured domestically. 
@@ -68,13 +68,10 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Polysilicon</t>
-  </si>
-  <si>
-    <t>Wafer</t>
-  </si>
-  <si>
-    <t>Cell Cost</t>
+    <t>Cell Cost (incl. domestic polysilicon and wafer)</t>
+  </si>
+  <si>
+    <t>Other material (e.g. front and back glass, encapsulant and others)</t>
   </si>
   <si>
     <t>Overheads</t>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Labour</t>
-  </si>
-  <si>
-    <t>Other material</t>
   </si>
   <si>
     <t>ESG Certification</t>
@@ -116,21 +110,39 @@
 The overall cost differences between countries still reflect regional factor costs—primarily labor rates and electricity tariffs—for downstream manufacturing steps. While Asian markets remain the most cost-competitive, importing polysilicon helps narrow the cost gap for countries like Germany by avoiding high domestic electricity costs associated with local polysilicon production. </t>
   </si>
   <si>
+    <t>Imported Polysilicon</t>
+  </si>
+  <si>
+    <t>Domestic Wafer (excl. polysilicon)</t>
+  </si>
+  <si>
+    <t>Domestic Cell (excl. wafer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Wafers**
 This scenario illustrates the cost of final PV modules when wafers are imported from China, while solar cells and panel assembly are manufactured domestically. The production capacity considered was 4 GW for solar cells and panel assembly.
 Importing wafers allows countries to bypass the energy-intensive wafer manufacturing stage, benefiting from China’s cost advantages and scale in this segment.  
 Despite importing wafers, regional factor costs such as labor rates and industrial electricity tariffs for solar cell production and panel assembly continue to influence final costs. Asian markets remain highly competitive, while countries with higher energy costs, like Germany, see reduced but still relatively higher costs compared to Asian producers. </t>
   </si>
   <si>
+    <t>Imported Wafer</t>
+  </si>
+  <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Cells**
 This scenario illustrates the cost of final PV modules when solar cells are imported from China and panel assembly are manufactured domestically. The production capacity considered was 4 GW for panel assembly.
 Importing cells from China results in the lowest overall module cost compared to other scenarios. This approach eliminates the need for domestic cell production, which is typically capital- and cost-intensive, while still enabling final module assembly to take place locally. Key material, such solar cells, along with other materials — as aluminium frames, glass, junction boxes — represent the largest cost items in module assembly.  Labor, electricity, and facility expenses vary by country and further impact total module costs. </t>
+  </si>
+  <si>
+    <t>Imported Cell (incl. polysilicon and wafer)</t>
   </si>
   <si>
     <t xml:space="preserve">**2025 PV Production Costs by Country with Imported Wafer**
 This scenario illustrates the cost of final PV modules when wafers are imported from Vietnam, while solar cells and panel assembly are manufactured domestically. The production capacity considered was 4 GW for solar cells and panel assembly.
 Importing wafers allows countries to bypass the energy-intensive wafer manufacturing stage, benefiting from Vietnam’s cost advantages and scale in this segment.  
 Despite importing wafers, regional factor costs such as labor rates and industrial electricity tariffs for solar cell production and panel assembly continue to influence final costs. Asian markets remain highly competitive, while countries with higher energy costs, like Germany, see reduced but still relatively higher costs compared to Asian producers. </t>
+  </si>
+  <si>
+    <t>Imported Wafer (incl. polysilicon)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3867D002-ADC4-4A8C-80BF-3C80267D81F2}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,161 +602,161 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>2.3377900350000001E-2</v>
+        <v>9.6669992874856087E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1944585774999997E-2</v>
+        <v>9.6291449109403682E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>2.6588051174999999E-2</v>
+        <v>0.10653856733086793</v>
       </c>
       <c r="E7" s="1">
-        <v>3.1006450649999996E-2</v>
+        <v>0.1500334662225227</v>
       </c>
       <c r="F7" s="1">
-        <v>3.1353920850000001E-2</v>
+        <v>0.15321250471294656</v>
       </c>
       <c r="G7" s="1">
-        <v>4.0372351949999996E-2</v>
+        <v>0.17513921159416534</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>3.3126947791375289E-2</v>
+      <c r="B8">
+        <v>5.5E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>3.4065769850922883E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.7037072672387136E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>5.505790583904191E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>5.588638112946577E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>6.5019114910684558E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0165144733480804E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.0281093483480808E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.2913443483480793E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6.39691097334808E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6.5972202733480811E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6.9747744733480804E-2</v>
+        <v>6.8771609999999997E-3</v>
+      </c>
+      <c r="C9">
+        <v>6.9322230000000004E-3</v>
+      </c>
+      <c r="D9">
+        <v>6.996496500000002E-3</v>
+      </c>
+      <c r="E9">
+        <v>8.7807330000000006E-3</v>
+      </c>
+      <c r="F9">
+        <v>8.9492310000000002E-3</v>
+      </c>
+      <c r="G9">
+        <v>8.9589600000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>6.8771609999999997E-3</v>
-      </c>
-      <c r="C10">
-        <v>6.9322230000000004E-3</v>
-      </c>
-      <c r="D10">
-        <v>6.996496500000002E-3</v>
-      </c>
-      <c r="E10">
-        <v>8.7807330000000006E-3</v>
-      </c>
-      <c r="F10">
-        <v>8.9492310000000002E-3</v>
-      </c>
-      <c r="G10">
-        <v>8.9589600000000002E-3</v>
+        <v>1.7500000000000003E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.3750000000000004E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.7500000000000003E-3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.3750000000000004E-3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4.4999999999999997E-3</v>
-      </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.75E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.75E-3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.5999999999999999E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.48E-3</v>
+      </c>
+      <c r="E13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D13" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="F13" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -752,22 +764,22 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.32E-3</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>1E-3</v>
+        <v>3.8279999999999998E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.48E-3</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>2E-3</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>1.8216E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>2E-3</v>
+        <v>1.7159999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -775,102 +787,56 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.3759999999999996E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>3.8279999999999998E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F15" s="1">
-        <v>1.8216E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5.5E-2</v>
+        <v>9.9669000000000008E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>5.5E-2</v>
+        <v>1.0046699999999999E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>5.5E-2</v>
+        <v>1.0139850000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>5.5E-2</v>
+        <v>1.27257E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>5.5E-2</v>
+        <v>1.2969899999999999E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>9.9669000000000008E-3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0046699999999999E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.0139850000000001E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.27257E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.2969899999999999E-2</v>
-      </c>
-      <c r="G18" s="1">
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0400BF-0193-4FE4-A416-543F0CF83CB2}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -928,22 +894,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0353066965E-2</v>
+        <v>8.6866473884655432E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>1.9089144112499998E-2</v>
+        <v>8.6387349858484772E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>2.3111901382499991E-2</v>
+        <v>9.5608801975121657E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>2.7114521175E-2</v>
+        <v>0.13882290717588555</v>
       </c>
       <c r="F7" s="2">
-        <v>2.7541909520999996E-2</v>
+        <v>0.14267580217538955</v>
       </c>
       <c r="G7" s="1">
-        <v>3.5074747575000002E-2</v>
+        <v>0.160093229798564</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -953,26 +919,26 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>3.2196836236263737E-2</v>
+      <c r="B8">
+        <v>5.5E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>3.3041176312593082E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.5870756159229966E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>5.3938830317493858E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5.4975165970997858E-2</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>6.3049701540172282E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -982,139 +948,139 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>3.4316570683391695E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.4257029433391706E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.6626144433391697E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.7769555683391698E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6.01587266833917E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6.1968780683391692E-2</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="B9">
+        <v>6.9651360000000011E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.0150230000000013E-3</v>
+      </c>
+      <c r="D9">
+        <v>7.0715340000000017E-3</v>
+      </c>
+      <c r="E9">
+        <v>8.8583580000000019E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.0382410000000007E-3</v>
+      </c>
+      <c r="G9">
+        <v>8.9900099999999997E-3</v>
+      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>6.9651360000000011E-3</v>
-      </c>
-      <c r="C10">
-        <v>7.0150230000000013E-3</v>
-      </c>
-      <c r="D10">
-        <v>7.0715340000000017E-3</v>
-      </c>
-      <c r="E10">
-        <v>8.8583580000000019E-3</v>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.8E-3</v>
       </c>
       <c r="F10" s="1">
-        <v>9.0382410000000007E-3</v>
-      </c>
-      <c r="G10">
-        <v>8.9900099999999997E-3</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.9E-3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.8E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.5E-3</v>
       </c>
       <c r="F11" s="1">
-        <v>1.3600000000000001E-3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+        <v>1.75E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.75E-3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.5999999999999999E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.48E-3</v>
+      </c>
+      <c r="E13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D13" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F13">
-        <v>5.0000000000000001E-3</v>
+      <c r="F13" s="1">
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="1"/>
@@ -1128,22 +1094,22 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.32E-3</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>1E-3</v>
+        <v>3.8279999999999998E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.48E-3</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>1.7687999999999999E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.8216E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>2E-3</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="1"/>
@@ -1157,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.3759999999999996E-3</v>
+        <v>3.5999999999999995E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>3.8279999999999998E-3</v>
+        <v>3.5999999999999995E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>3.5999999999999995E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>1.7687999999999999E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.8216E-2</v>
+        <v>3.5999999999999995E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.5999999999999995E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>3.5999999999999995E-3</v>
       </c>
       <c r="L15" s="1"/>
       <c r="N15" s="1"/>
@@ -1182,100 +1148,42 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5.5E-2</v>
+        <v>1.0094400000000002E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>5.5E-2</v>
+        <v>1.0166700000000001E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>5.5E-2</v>
+        <v>1.0248600000000002E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>5.5E-2</v>
+        <v>1.2838200000000001E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>5.5E-2</v>
+        <v>1.30989E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>1.3029000000000001E-2</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>3.5999999999999995E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.5999999999999995E-3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.5999999999999995E-3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.5999999999999995E-3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3.5999999999999995E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3.5999999999999995E-3</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1.0094400000000002E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0166700000000001E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.0248600000000002E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.2838200000000001E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.30989E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.3029000000000001E-2</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E072E-C271-4932-9F5C-B25CC673A8A1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -1297,7 +1205,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="287.64999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,7 +1224,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1.0844319230769232E-2</v>
@@ -1334,7 +1242,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>3.3126947791375289E-2</v>
@@ -1352,7 +1260,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>4.0165144733480804E-2</v>
@@ -1370,140 +1278,139 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>6.8771609999999997E-3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>6.996496500000002E-3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>8.9589600000000002E-3</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.7500000000000003E-3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.3750000000000004E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1E-3</v>
+        <v>1.7500000000000003E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1522,7 +1429,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>9.9669000000000008E-3</v>
@@ -1548,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56143F65-3444-417C-BDD4-656B420EBFCE}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,7 +1485,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>2.2649465485420638E-2</v>
@@ -1595,7 +1502,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>4.0165144733480804E-2</v>
@@ -1611,127 +1518,127 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>6.8771609999999997E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.7500000000000003E-3</v>
+        <v>6.8771609999999997E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1E-3</v>
+        <v>1.7500000000000003E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1748,7 +1655,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>9.9669000000000008E-3</v>
@@ -1772,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84CE525-A0E8-49E7-BFCB-CED0D462C0E6}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -1783,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,7 +1709,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>4.1161767142965842E-2</v>
@@ -1818,127 +1725,127 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>6.8771609999999997E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1.7500000000000003E-3</v>
+        <v>6.8771609999999997E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1E-3</v>
+        <v>1.7500000000000003E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.3999999999999998E-3</v>
@@ -1955,7 +1862,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>9.9669000000000008E-3</v>
@@ -1979,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DF5D6-98CE-494A-A655-C0A0DF91D328}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -1990,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,7 +1916,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>5.2026654783125369E-2</v>
@@ -2026,7 +1933,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>4.2913443483480793E-2</v>
@@ -2042,130 +1949,130 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>8.9492310000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.7000000000000001E-3</v>
+        <v>8.9492310000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>1.75E-3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
+        <v>1.7000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1.75E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>1.8216E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>5.5E-2</v>
+        <v>1.8216E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2.3999999999999998E-3</v>
@@ -2182,7 +2089,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1.0139850000000001E-2</v>
@@ -2206,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19535FBD-F5C8-425C-9DBE-0766F7008F95}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -2218,7 +2125,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="183.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,7 +2144,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>9.086812194858139E-2</v>
@@ -2253,127 +2160,127 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>8.9492310000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>1.7000000000000001E-3</v>
+        <v>8.9492310000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.75E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1.75E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>1.8216E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>5.5E-2</v>
+        <v>1.8216E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>2.3999999999999998E-3</v>
@@ -2390,7 +2297,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>1.0139850000000001E-2</v>
@@ -2411,6 +2318,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -2645,27 +2572,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200806E0-22AD-4C17-808B-0A7BBD1941FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2682,23 +2608,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E5D41C-97E7-4D58-8CB7-87AD7F50D9E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ECB72-216B-4513-8FCB-958F6873E25B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>